--- a/user_data/atharva_workouts.xlsx
+++ b/user_data/atharva_workouts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,83 +436,41 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>sets</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>reps</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>day</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Push Ups</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Sit Ups</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>3</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>12</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Push Ups</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Squats</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Push Ups</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>12</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Tuesday</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/user_data/atharva_workouts.xlsx
+++ b/user_data/atharva_workouts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,18 +458,36 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sit Ups</t>
+          <t>Push Ups</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Squats</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
         <v>12</v>
       </c>
     </row>
